--- a/state_estimator/Results_basico.xlsx
+++ b/state_estimator/Results_basico.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soluciones" sheetId="1" state="visible" r:id="rId1"/>
@@ -289,52 +289,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="16"/>
                 <pt idx="0">
-                  <v>0.0003894441368895024</v>
+                  <v>0.0004557213526583496</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0003968362365931594</v>
+                  <v>0.0004644708864315512</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.001421867283097553</v>
+                  <v>0.0004570099725966781</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.493253427387991e-05</v>
+                  <v>1.411969027506008e-05</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.001454105043158946</v>
+                  <v>0.00150736546046884</v>
                 </pt>
                 <pt idx="5">
-                  <v>4.187386038272275e-05</v>
+                  <v>1.913401213872185e-05</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0006751591074326477</v>
+                  <v>0.001517444110957701</v>
                 </pt>
                 <pt idx="7">
-                  <v>6.64193110878951e-05</v>
+                  <v>2.164875476292705e-05</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.001302012411586777</v>
+                  <v>0.001267807761665539</v>
                 </pt>
                 <pt idx="9">
-                  <v>1.948169542747603e-05</v>
+                  <v>1.955439871389303e-05</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.001234972601879908</v>
+                  <v>0.001294780767956381</v>
                 </pt>
                 <pt idx="11">
-                  <v>2.81720255011881e-05</v>
+                  <v>2.834779162976604e-05</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.001320950924526242</v>
+                  <v>0.001303774330104229</v>
                 </pt>
                 <pt idx="13">
-                  <v>3.246216645666315e-05</v>
+                  <v>3.261941526446627e-05</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.01896677590165963</v>
+                  <v>0.02043550807688632</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.01872661691703736</v>
+                  <v>0.02026446754622691</v>
                 </pt>
               </numCache>
             </numRef>
@@ -419,52 +419,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="16"/>
                 <pt idx="0">
-                  <v>2.637968830181137e-05</v>
+                  <v>1.084879827568247e-05</v>
                 </pt>
                 <pt idx="1">
-                  <v>2.686178488003899e-05</v>
+                  <v>1.104748680379186e-05</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0001302205683253663</v>
+                  <v>5.038296193590752e-05</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.663335530924118e-06</v>
+                  <v>6.179317923383945e-07</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0001799890610984373</v>
+                  <v>8.419608327368822e-05</v>
                 </pt>
                 <pt idx="5">
-                  <v>4.528595097211046e-06</v>
+                  <v>7.025159711516495e-07</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0001352002562680296</v>
+                  <v>6.476237909562588e-05</v>
                 </pt>
                 <pt idx="7">
-                  <v>7.260602392510042e-06</v>
+                  <v>7.901287946980758e-07</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0001285558739407347</v>
+                  <v>4.65267940614536e-05</v>
                 </pt>
                 <pt idx="9">
-                  <v>2.272856226737943e-06</v>
+                  <v>1.156222246259143e-06</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0001031029730610214</v>
+                  <v>2.919090875009439e-05</v>
                 </pt>
                 <pt idx="11">
-                  <v>3.455839559026114e-06</v>
+                  <v>1.863363442506944e-06</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0001228278296089708</v>
+                  <v>3.9684309982288e-05</v>
                 </pt>
                 <pt idx="13">
-                  <v>3.980082613779315e-06</v>
+                  <v>2.133332423298172e-06</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.001838931676568567</v>
+                  <v>0.0007407726170529649</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.001796824081593429</v>
+                  <v>0.0007220343553768771</v>
                 </pt>
               </numCache>
             </numRef>
@@ -525,7 +525,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -587,7 +587,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -625,7 +625,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="es-ES"/>
         </a:p>
@@ -766,43 +766,43 @@
                 <formatCode>General</formatCode>
                 <ptCount val="15"/>
                 <pt idx="0">
-                  <v>0.01872173921103593</v>
+                  <v>0.02026094606694262</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.01784975843403358</v>
+                  <v>0.02660681267612464</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.01897868652729395</v>
+                  <v>0.0204449627452058</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.01773930513133914</v>
+                  <v>0.01910842514367117</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.01900881376512176</v>
+                  <v>0.0204301877791947</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.02585077564121074</v>
+                  <v>0.01910030773703431</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.01904636023697959</v>
+                  <v>0.02042285150825962</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.01829970677192616</v>
+                  <v>0.01980138948187515</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.01895130954631186</v>
+                  <v>0.02042035018558741</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.01840780928543384</v>
+                  <v>0.01985517258169767</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.01894459705627194</v>
+                  <v>0.02041369495987533</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.01829154063289995</v>
+                  <v>0.01978436502737613</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.01894096242399779</v>
+                  <v>0.02041017696843439</v>
                 </pt>
               </numCache>
             </numRef>
@@ -878,43 +878,43 @@
                 <formatCode>General</formatCode>
                 <ptCount val="15"/>
                 <pt idx="0">
-                  <v>0.001795980886409865</v>
+                  <v>0.000721658946846504</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.001785521304108695</v>
+                  <v>0.001074469051887572</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.001840489588597172</v>
+                  <v>0.0007412058119240506</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.001656003679277429</v>
+                  <v>0.000637211592751985</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.001843934773900102</v>
+                  <v>0.0007402338553109677</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.002662178786745684</v>
+                  <v>0.0006809904859527149</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.001848525039856996</v>
+                  <v>0.000739885814178165</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.00175231901013162</v>
+                  <v>0.0006964016822603725</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.001838188585036149</v>
+                  <v>0.0007410963954166405</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.00186344460644694</v>
+                  <v>0.0008101570098555388</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.001838141545330241</v>
+                  <v>0.0007415322572267291</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.001809337240721964</v>
+                  <v>0.0007571916162268932</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.001837974198384495</v>
+                  <v>0.0007416114271967533</v>
                 </pt>
               </numCache>
             </numRef>
@@ -975,7 +975,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -1037,7 +1037,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -1075,7 +1075,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="es-ES"/>
         </a:p>
@@ -1282,109 +1282,109 @@
                 <formatCode>General</formatCode>
                 <ptCount val="35"/>
                 <pt idx="0">
-                  <v>0.0001803987641488382</v>
+                  <v>0.0002032992451986393</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0002983210580738453</v>
+                  <v>0.0002523183099540102</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.002447010589349507</v>
+                  <v>0.002446105684277498</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.997519520683923e-05</v>
+                  <v>2.104049376060134e-05</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.000176149042263003</v>
+                  <v>0.0001837439776922568</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0003562260433214664</v>
+                  <v>0.0003335971922398292</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.002450019586560748</v>
+                  <v>0.002449268817432972</v>
                 </pt>
                 <pt idx="7">
-                  <v>1.947445442862896e-05</v>
+                  <v>2.126652403739516e-05</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0002037818740123006</v>
+                  <v>0.0001853007349403219</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0002994279740017052</v>
+                  <v>0.0003332886798586124</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.002450025351205185</v>
+                  <v>0.002449296460058278</v>
                 </pt>
                 <pt idx="11">
-                  <v>2.476905740820514e-05</v>
+                  <v>2.202494599490519e-05</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.00018303079045164</v>
+                  <v>0.0001843023524689281</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0002943046215477421</v>
+                  <v>0.000296871419287978</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.002448037125579789</v>
+                  <v>0.002447187095554743</v>
                 </pt>
                 <pt idx="15">
-                  <v>2.14648038701622e-05</v>
+                  <v>1.945180725107238e-05</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0001810008969756638</v>
+                  <v>0.0001856287832253238</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0003188208271897606</v>
+                  <v>0.0003082142053567214</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.002450041521395466</v>
+                  <v>0.002449247882563188</v>
                 </pt>
                 <pt idx="19">
-                  <v>2.098679277680448e-05</v>
+                  <v>2.105406307772445e-05</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0001827459926506713</v>
+                  <v>0.0001845705027847374</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0003213573770048759</v>
+                  <v>0.0003214462073522473</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.002451107373116466</v>
+                  <v>0.002450265318124833</v>
                 </pt>
                 <pt idx="23">
-                  <v>2.355307439796242e-05</v>
+                  <v>2.173178642472973e-05</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0007966676522658801</v>
+                  <v>0.0007972144698319269</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.001249663455150456</v>
+                  <v>0.001245152124468851</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.002484909578544557</v>
+                  <v>0.002484112170227215</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0004549198297661483</v>
+                  <v>0.000454408144571982</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0007877171087897644</v>
+                  <v>0.000789837362393125</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.001217556218067313</v>
+                  <v>0.00121827544255026</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.00047006056060535</v>
+                  <v>0.0004412743295934564</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.001635523057957475</v>
+                  <v>0.001635907428684369</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.002569798891564902</v>
+                  <v>0.002569893067661747</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.002484529771397409</v>
+                  <v>0.00248372366621283</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.001998891465548825</v>
+                  <v>0.001929203430838912</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1526,109 +1526,109 @@
                 <formatCode>General</formatCode>
                 <ptCount val="35"/>
                 <pt idx="0">
-                  <v>0.0001825408532728284</v>
+                  <v>0.0002507541548914628</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.000298323168936493</v>
+                  <v>0.0003536753457209876</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.002448172047196422</v>
+                  <v>0.002449571860869826</v>
                 </pt>
                 <pt idx="3">
-                  <v>2.066982893040364e-05</v>
+                  <v>2.260065192450147e-05</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0001776481378919253</v>
+                  <v>0.0001862746933068353</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0003538493851727579</v>
+                  <v>0.0003313486641235616</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.002451176687146709</v>
+                  <v>0.002450724897907547</v>
                 </pt>
                 <pt idx="7">
-                  <v>2.025861908874899e-05</v>
+                  <v>2.196606670938116e-05</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0002603123755626633</v>
+                  <v>0.0001880565207332402</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0004040505645309589</v>
+                  <v>0.0003315166618081561</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.002453239534805801</v>
+                  <v>0.002450743798244148</v>
                 </pt>
                 <pt idx="11">
-                  <v>2.665405964727913e-05</v>
+                  <v>2.27563066099938e-05</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0001854087802553962</v>
+                  <v>0.0001869588257992635</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0002932765716219201</v>
+                  <v>0.0002954000827101476</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.002449311364376314</v>
+                  <v>0.00244878925282499</v>
                 </pt>
                 <pt idx="15">
-                  <v>2.14518621311848e-05</v>
+                  <v>1.942571119395057e-05</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0001833139550299115</v>
+                  <v>0.0001884282435460386</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.000317453972294498</v>
+                  <v>0.0003065379145026221</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.002451313936508537</v>
+                  <v>0.002450837974832859</v>
                 </pt>
                 <pt idx="19">
-                  <v>2.097831631309905e-05</v>
+                  <v>2.103955878443684e-05</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0001852197128554393</v>
+                  <v>0.0001873793911153696</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0003199817586316768</v>
+                  <v>0.0003195917281480405</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.002452369113668414</v>
+                  <v>0.002451851288733416</v>
                 </pt>
                 <pt idx="23">
-                  <v>2.3556997074884e-05</v>
+                  <v>2.1723452415884e-05</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0008164151483132205</v>
+                  <v>0.0008156206453618197</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.001259024763692161</v>
+                  <v>0.001250390083011093</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.002486266244229857</v>
+                  <v>0.002485802163274475</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0004628488062866513</v>
+                  <v>0.00045959126271582</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0007894497433622995</v>
+                  <v>0.0007919602992175881</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.001220254306131998</v>
+                  <v>0.001220831057950356</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0004702503653691616</v>
+                  <v>0.0004414522463193231</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.001652053091194645</v>
+                  <v>0.001651934758608895</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.002569663607507266</v>
+                  <v>0.002569008223102101</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.002485820339868344</v>
+                  <v>0.002485353575783516</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.002006404214363726</v>
+                  <v>0.001934804438699613</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1689,7 +1689,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -1751,7 +1751,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -1789,7 +1789,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="es-ES"/>
         </a:p>
@@ -1996,109 +1996,109 @@
                 <formatCode>General</formatCode>
                 <ptCount val="35"/>
                 <pt idx="0">
-                  <v>-2.142089123990205e-06</v>
+                  <v>-4.745490969282348e-05</v>
                 </pt>
                 <pt idx="1">
-                  <v>-2.110862647706786e-09</v>
+                  <v>-0.0001013570357669774</v>
                 </pt>
                 <pt idx="2">
-                  <v>-1.161457846914852e-06</v>
+                  <v>-3.466176592328146e-06</v>
                 </pt>
                 <pt idx="3">
-                  <v>-6.946337235644091e-07</v>
+                  <v>-1.560158163900131e-06</v>
                 </pt>
                 <pt idx="4">
-                  <v>-1.499095628922309e-06</v>
+                  <v>-2.530715614578518e-06</v>
                 </pt>
                 <pt idx="5">
-                  <v>2.376658148708498e-06</v>
+                  <v>2.248528116267565e-06</v>
                 </pt>
                 <pt idx="6">
-                  <v>-1.157100585961329e-06</v>
+                  <v>-1.456080474574861e-06</v>
                 </pt>
                 <pt idx="7">
-                  <v>-7.841646601200298e-07</v>
+                  <v>-6.995426719859998e-07</v>
                 </pt>
                 <pt idx="8">
-                  <v>-5.653050155036269e-05</v>
+                  <v>-2.755785792918293e-06</v>
                 </pt>
                 <pt idx="9">
-                  <v>-0.0001046225905292537</v>
+                  <v>1.772018050456294e-06</v>
                 </pt>
                 <pt idx="10">
-                  <v>-3.214183600616129e-06</v>
+                  <v>-1.44733818586984e-06</v>
                 </pt>
                 <pt idx="11">
-                  <v>-1.885002239073991e-06</v>
+                  <v>-7.313606150886092e-07</v>
                 </pt>
                 <pt idx="12">
-                  <v>-2.377989803756204e-06</v>
+                  <v>-2.656473330335399e-06</v>
                 </pt>
                 <pt idx="13">
-                  <v>1.028049925822026e-06</v>
+                  <v>1.471336577830399e-06</v>
                 </pt>
                 <pt idx="14">
-                  <v>-1.274238796524982e-06</v>
+                  <v>-1.602157270247026e-06</v>
                 </pt>
                 <pt idx="15">
-                  <v>1.294173897740139e-08</v>
+                  <v>2.609605712181016e-08</v>
                 </pt>
                 <pt idx="16">
-                  <v>-2.313058054247678e-06</v>
+                  <v>-2.799460320714785e-06</v>
                 </pt>
                 <pt idx="17">
-                  <v>1.366854895262586e-06</v>
+                  <v>1.676290854099312e-06</v>
                 </pt>
                 <pt idx="18">
-                  <v>-1.272415113071166e-06</v>
+                  <v>-1.590092269670735e-06</v>
                 </pt>
                 <pt idx="19">
-                  <v>8.476463705428376e-09</v>
+                  <v>1.450429328760986e-08</v>
                 </pt>
                 <pt idx="20">
-                  <v>-2.473720204768017e-06</v>
+                  <v>-2.808888330632203e-06</v>
                 </pt>
                 <pt idx="21">
-                  <v>1.375618373199129e-06</v>
+                  <v>1.854479204206833e-06</v>
                 </pt>
                 <pt idx="22">
-                  <v>-1.26174055194812e-06</v>
+                  <v>-1.585970608583218e-06</v>
                 </pt>
                 <pt idx="23">
-                  <v>-3.922676921580917e-09</v>
+                  <v>8.334008845728625e-09</v>
                 </pt>
                 <pt idx="24">
-                  <v>-1.974749604734033e-05</v>
+                  <v>-1.840617552989281e-05</v>
                 </pt>
                 <pt idx="25">
-                  <v>-9.361308541705037e-06</v>
+                  <v>-5.237958542242058e-06</v>
                 </pt>
                 <pt idx="26">
-                  <v>-1.356665685299952e-06</v>
+                  <v>-1.689993047260339e-06</v>
                 </pt>
                 <pt idx="27">
-                  <v>-7.928976520503006e-06</v>
+                  <v>-5.183118143837996e-06</v>
                 </pt>
                 <pt idx="28">
-                  <v>-1.732634572535093e-06</v>
+                  <v>-2.122936824463075e-06</v>
                 </pt>
                 <pt idx="29">
-                  <v>-2.698088064685081e-06</v>
+                  <v>-2.555615400096122e-06</v>
                 </pt>
                 <pt idx="30">
-                  <v>-1.898047638115743e-07</v>
+                  <v>-1.77916725866735e-07</v>
                 </pt>
                 <pt idx="31">
-                  <v>-1.653003323717002e-05</v>
+                  <v>-1.602732992452591e-05</v>
                 </pt>
                 <pt idx="32">
-                  <v>1.352840576359857e-07</v>
+                  <v>8.848445596462175e-07</v>
                 </pt>
                 <pt idx="33">
-                  <v>-1.290568470934967e-06</v>
+                  <v>-1.629909570686084e-06</v>
                 </pt>
                 <pt idx="34">
-                  <v>-7.512748814901028e-06</v>
+                  <v>-5.601007860700849e-06</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2159,7 +2159,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -2221,7 +2221,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -2267,7 +2267,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -2278,7 +2278,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -2289,7 +2289,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02552328076684581</v>
+        <v>-0.02552328076685446</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02506755941421094</v>
+        <v>-0.02506755941419611</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0255124319685186</v>
+        <v>-0.02551243196857878</v>
       </c>
     </row>
     <row r="3">
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0260262969432875</v>
+        <v>-0.02602629694329632</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0255618260568799</v>
+        <v>-0.02556182605686477</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02601524945643117</v>
+        <v>-0.02601524945649253</v>
       </c>
     </row>
     <row r="4">
@@ -2737,13 +2737,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05355119900707554</v>
+        <v>0.05355119900705603</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05400820897960271</v>
+        <v>0.05400820897965271</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05360158196904102</v>
+        <v>0.05360158196899194</v>
       </c>
     </row>
     <row r="5">
@@ -2753,13 +2753,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0004267137368182604</v>
+        <v>0.0004267137368184735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004125940465443118</v>
+        <v>0.0004125940465434134</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00042609580502575</v>
+        <v>0.0004260958050261351</v>
       </c>
     </row>
     <row r="6">
@@ -2769,13 +2769,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05227400017511789</v>
+        <v>0.05227400017509506</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05076663471454067</v>
+        <v>0.05076663471462622</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05218980409186357</v>
+        <v>0.05218980409182137</v>
       </c>
     </row>
     <row r="7">
@@ -2785,13 +2785,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.000992995227011394</v>
+        <v>0.0009929952270121909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009738612148951606</v>
+        <v>0.0009738612148734691</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0009922927110410666</v>
+        <v>0.0009922927110410393</v>
       </c>
     </row>
     <row r="8">
@@ -2801,13 +2801,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05428992161855449</v>
+        <v>0.05428992161853315</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05277247750749409</v>
+        <v>0.05277247750757545</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05422515923947521</v>
+        <v>0.05422515923943753</v>
       </c>
     </row>
     <row r="9">
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001279408897981688</v>
+        <v>0.001279408897982445</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001257760143239702</v>
+        <v>0.001257760143219518</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001278618769186551</v>
+        <v>0.001278618769187747</v>
       </c>
     </row>
     <row r="10">
@@ -2833,13 +2833,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05161730049328718</v>
+        <v>0.05161730049330506</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05034949273165312</v>
+        <v>0.05034949273163952</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05157077369927768</v>
+        <v>0.05157077369924361</v>
       </c>
     </row>
     <row r="11">
@@ -2849,13 +2849,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001257288101167655</v>
+        <v>0.001257288101166404</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001237733702451314</v>
+        <v>0.001237733702452511</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001256131878919101</v>
+        <v>0.001256131878920145</v>
       </c>
     </row>
     <row r="12">
@@ -2865,13 +2865,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05368757698842254</v>
+        <v>0.05368757698843862</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05239279622049323</v>
+        <v>0.05239279622048224</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05365838607972037</v>
+        <v>0.05365838607968853</v>
       </c>
     </row>
     <row r="13">
@@ -2881,13 +2881,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001818704729463723</v>
+        <v>0.001818704729460989</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001790356937828329</v>
+        <v>0.001790356937831223</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001816841366016615</v>
+        <v>0.001816841366018482</v>
       </c>
     </row>
     <row r="14">
@@ -2897,13 +2897,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05327191865772867</v>
+        <v>0.0532719186577447</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05196814432765073</v>
+        <v>0.05196814432764047</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05323223434779865</v>
+        <v>0.05323223434776241</v>
       </c>
     </row>
     <row r="15">
@@ -2913,13 +2913,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002098103666966824</v>
+        <v>0.002098103666962444</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00206548425169239</v>
+        <v>0.002065484251697978</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002095970334538862</v>
+        <v>0.002095970334539146</v>
       </c>
     </row>
     <row r="16">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9855045632688155</v>
+        <v>0.9855045632688197</v>
       </c>
       <c r="C16" t="n">
-        <v>1.005940071345805</v>
+        <v>1.005940071345706</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9862453358859439</v>
+        <v>0.9862453358858727</v>
       </c>
     </row>
     <row r="17">
@@ -2945,13 +2945,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9997004323487062</v>
+        <v>0.9997004323487131</v>
       </c>
       <c r="C17" t="n">
-        <v>1.01996489989503</v>
+        <v>1.01996489989494</v>
       </c>
       <c r="D17" t="n">
-        <v>1.000422466704158</v>
+        <v>1.00042246670409</v>
       </c>
     </row>
     <row r="18">
@@ -2961,13 +2961,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999908958431256</v>
+        <v>0.9999908958431324</v>
       </c>
       <c r="C18" t="n">
-        <v>1.020251841910164</v>
+        <v>1.020251841910075</v>
       </c>
       <c r="D18" t="n">
-        <v>1.000712554790046</v>
+        <v>1.000712554789979</v>
       </c>
     </row>
     <row r="19">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9716142178754962</v>
+        <v>0.971614217875501</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9982210305518849</v>
+        <v>0.9982210305516256</v>
       </c>
       <c r="D19" t="n">
-        <v>0.972688686927504</v>
+        <v>0.9726886869273885</v>
       </c>
     </row>
     <row r="20">
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9857249417295835</v>
+        <v>0.9857249417295882</v>
       </c>
       <c r="C20" t="n">
-        <v>1.006169904474894</v>
+        <v>1.006169904474794</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9864661475415829</v>
+        <v>0.9864661475415123</v>
       </c>
     </row>
     <row r="21">
@@ -3009,13 +3009,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9716404776211421</v>
+        <v>0.9716404776211426</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9907489027648396</v>
+        <v>0.9907489027648138</v>
       </c>
       <c r="D21" t="n">
-        <v>0.972277689213972</v>
+        <v>0.9722776892138946</v>
       </c>
     </row>
     <row r="22">
@@ -3025,13 +3025,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9860160798959186</v>
+        <v>0.9860160798959242</v>
       </c>
       <c r="C22" t="n">
-        <v>1.006446267675249</v>
+        <v>1.006446267675119</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9867563137513065</v>
+        <v>0.9867563137512352</v>
       </c>
     </row>
     <row r="23">
@@ -3041,13 +3041,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9720526977453865</v>
+        <v>0.9720526977453929</v>
       </c>
       <c r="C23" t="n">
-        <v>0.991153005482467</v>
+        <v>0.9911530054824272</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9727336882314074</v>
+        <v>0.9727336882313457</v>
       </c>
     </row>
     <row r="24">
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9861655786150408</v>
+        <v>0.9861655786150463</v>
       </c>
       <c r="C24" t="n">
-        <v>1.006588430123433</v>
+        <v>1.006588430123306</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9869054644292937</v>
+        <v>0.9869054644292244</v>
       </c>
     </row>
     <row r="25">
@@ -3073,13 +3073,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9716258857810447</v>
+        <v>0.9716258857810491</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9914272752630211</v>
+        <v>0.9914272752629243</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9723222874633896</v>
+        <v>0.9723222874633095</v>
       </c>
     </row>
     <row r="26">
@@ -3089,13 +3089,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9861389025002708</v>
+        <v>0.9861389025002737</v>
       </c>
       <c r="C26" t="n">
-        <v>1.006559252685957</v>
+        <v>1.006559252685861</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9868799988957596</v>
+        <v>0.9868799988956903</v>
       </c>
     </row>
     <row r="27">
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.972146980509473</v>
+        <v>0.9721469805094699</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9920021530912547</v>
+        <v>0.9920021530911676</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9729571375193922</v>
+        <v>0.9729571375193254</v>
       </c>
     </row>
     <row r="28">
@@ -3121,13 +3121,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9864246878666049</v>
+        <v>0.9864246878666058</v>
       </c>
       <c r="C28" t="n">
-        <v>1.006838382826575</v>
+        <v>1.006838382826481</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9871662201239007</v>
+        <v>0.9871662201238325</v>
       </c>
     </row>
     <row r="29">
@@ -3137,13 +3137,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9721890327770252</v>
+        <v>0.9721890327770212</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9919733978044829</v>
+        <v>0.9919733978043973</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9729462243933211</v>
+        <v>0.9729462243932481</v>
       </c>
     </row>
     <row r="30">
@@ -3153,13 +3153,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9865660522869735</v>
+        <v>0.9865660522869717</v>
       </c>
       <c r="C30" t="n">
-        <v>1.006976229255496</v>
+        <v>1.006976229255406</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9873076637142388</v>
+        <v>0.9873076637141684</v>
       </c>
     </row>
   </sheetData>
@@ -3200,10 +3200,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0002032992451989169</v>
+        <v>0.0002032992451986393</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000250754155127173</v>
+        <v>0.0002507541548914628</v>
       </c>
     </row>
     <row r="3">
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0002523183101281668</v>
+        <v>0.0002523183099540102</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000353675346016847</v>
+        <v>0.0003536753457209876</v>
       </c>
     </row>
     <row r="4">
@@ -3226,10 +3226,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00244610568427806</v>
+        <v>0.002446105684277498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002449571860867264</v>
+        <v>0.002449571860869826</v>
       </c>
     </row>
     <row r="5">
@@ -3239,10 +3239,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.104049387277285e-05</v>
+        <v>2.104049376060134e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>2.260065219240725e-05</v>
+        <v>2.260065192450147e-05</v>
       </c>
     </row>
     <row r="6">
@@ -3252,10 +3252,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001837439777242335</v>
+        <v>0.0001837439776922568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001862746933590386</v>
+        <v>0.0001862746933068353</v>
       </c>
     </row>
     <row r="7">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.000333597192231909</v>
+        <v>0.0003335971922398292</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000331348664120418</v>
+        <v>0.0003313486641235616</v>
       </c>
     </row>
     <row r="8">
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002449268817432923</v>
+        <v>0.002449268817432972</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002450724897904705</v>
+        <v>0.002450724897907547</v>
       </c>
     </row>
     <row r="9">
@@ -3291,10 +3291,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.126652415367046e-05</v>
+        <v>2.126652403739516e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>2.196606701770331e-05</v>
+        <v>2.196606670938116e-05</v>
       </c>
     </row>
     <row r="10">
@@ -3304,10 +3304,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0001853007349641656</v>
+        <v>0.0001853007349403219</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001880565207683123</v>
+        <v>0.0001880565207332402</v>
       </c>
     </row>
     <row r="11">
@@ -3317,10 +3317,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0003332886798480466</v>
+        <v>0.0003332886798586124</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003315166618149756</v>
+        <v>0.0003315166618081561</v>
       </c>
     </row>
     <row r="12">
@@ -3330,10 +3330,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00244929646005826</v>
+        <v>0.002449296460058278</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002450743798241353</v>
+        <v>0.002450743798244148</v>
       </c>
     </row>
     <row r="13">
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.202494611616323e-05</v>
+        <v>2.202494599490519e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>2.275630693127046e-05</v>
+        <v>2.27563066099938e-05</v>
       </c>
     </row>
     <row r="14">
@@ -3356,10 +3356,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001843023524296681</v>
+        <v>0.0001843023524689281</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001869588257681598</v>
+        <v>0.0001869588257992635</v>
       </c>
     </row>
     <row r="15">
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002968714192807808</v>
+        <v>0.000296871419287978</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002954000827112206</v>
+        <v>0.0002954000827101476</v>
       </c>
     </row>
     <row r="16">
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.002447187095554765</v>
+        <v>0.002447187095554743</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002448789252822124</v>
+        <v>0.00244878925282499</v>
       </c>
     </row>
     <row r="17">
@@ -3395,10 +3395,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.945180721189935e-05</v>
+        <v>1.945180725107238e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>1.942571100471032e-05</v>
+        <v>1.942571119395057e-05</v>
       </c>
     </row>
     <row r="18">
@@ -3408,10 +3408,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001856287831901074</v>
+        <v>0.0001856287832253238</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001884282435234512</v>
+        <v>0.0001884282435460386</v>
       </c>
     </row>
     <row r="19">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0003082142053578008</v>
+        <v>0.0003082142053567214</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0003065379144977503</v>
+        <v>0.0003065379145026221</v>
       </c>
     </row>
     <row r="20">
@@ -3434,10 +3434,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002449247882563224</v>
+        <v>0.002449247882563188</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002450837974829968</v>
+        <v>0.002450837974832859</v>
       </c>
     </row>
     <row r="21">
@@ -3447,10 +3447,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.105406303501398e-05</v>
+        <v>2.105406307772445e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>2.10395585767788e-05</v>
+        <v>2.103955878443684e-05</v>
       </c>
     </row>
     <row r="22">
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0001845705027433336</v>
+        <v>0.0001845705027847374</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001873793910863662</v>
+        <v>0.0001873793911153696</v>
       </c>
     </row>
     <row r="23">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0003214462073504082</v>
+        <v>0.0003214462073522473</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0003195917281456605</v>
+        <v>0.0003195917281480405</v>
       </c>
     </row>
     <row r="24">
@@ -3486,10 +3486,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.002450265318124879</v>
+        <v>0.002450265318124833</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002451851288730495</v>
+        <v>0.002451851288733416</v>
       </c>
     </row>
     <row r="25">
@@ -3499,10 +3499,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.173178638083842e-05</v>
+        <v>2.173178642472973e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>2.172345220047731e-05</v>
+        <v>2.1723452415884e-05</v>
       </c>
     </row>
     <row r="26">
@@ -3512,10 +3512,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0007972144695840502</v>
+        <v>0.0007972144698319269</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0008156206463115851</v>
+        <v>0.0008156206453618197</v>
       </c>
     </row>
     <row r="27">
@@ -3525,10 +3525,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.001245152124533011</v>
+        <v>0.001245152124468851</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001250390082987104</v>
+        <v>0.001250390083011093</v>
       </c>
     </row>
     <row r="28">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.002484112170227179</v>
+        <v>0.002484112170227215</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002485802163271535</v>
+        <v>0.002485802163274475</v>
       </c>
     </row>
     <row r="29">
@@ -3551,10 +3551,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0004544081453565931</v>
+        <v>0.000454408144571982</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0004595912717213801</v>
+        <v>0.00045959126271582</v>
       </c>
     </row>
     <row r="30">
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0007898373614763849</v>
+        <v>0.000789837362393125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0007919602990111526</v>
+        <v>0.0007919602992175881</v>
       </c>
     </row>
     <row r="31">
@@ -3577,10 +3577,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.001218275442488154</v>
+        <v>0.00121827544255026</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001220831057970482</v>
+        <v>0.001220831057950356</v>
       </c>
     </row>
     <row r="32">
@@ -3590,10 +3590,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0004412743275493304</v>
+        <v>0.0004412743295934564</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0004414522421173662</v>
+        <v>0.0004414522463193231</v>
       </c>
     </row>
     <row r="33">
@@ -3603,10 +3603,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.00163590742840685</v>
+        <v>0.001635907428684369</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001651934759235494</v>
+        <v>0.001651934758608895</v>
       </c>
     </row>
     <row r="34">
@@ -3616,10 +3616,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.002569893067664692</v>
+        <v>0.002569893067661747</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002569008223094979</v>
+        <v>0.002569008223102101</v>
       </c>
     </row>
     <row r="35">
@@ -3629,10 +3629,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.002483723666212856</v>
+        <v>0.00248372366621283</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00248535357578044</v>
+        <v>0.002485353575783516</v>
       </c>
     </row>
     <row r="36">
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.001929203431565197</v>
+        <v>0.001929203430838912</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001934804445115188</v>
+        <v>0.001934804438699613</v>
       </c>
     </row>
   </sheetData>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.0198573115736763</v>
+        <v>0.01985731157353862</v>
       </c>
     </row>
     <row r="3">
@@ -4131,25 +4131,25 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03350162484704981</v>
+        <v>0.03350162484659513</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02402918074064295</v>
+        <v>0.02402918074069115</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02122833238299591</v>
+        <v>0.02122833238406367</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02027838598145302</v>
+        <v>0.02027838598282975</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01997621874577028</v>
+        <v>0.01997621874591526</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01985824388538067</v>
+        <v>0.01985824388522158</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0198573115736763</v>
+        <v>0.01985731157353862</v>
       </c>
     </row>
     <row r="3">
@@ -4168,16 +4168,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06204183491704907</v>
+        <v>0.06204183491582115</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1173019849481066</v>
+        <v>0.1173019847397365</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2629482521595907</v>
+        <v>0.2629482517186483</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5779879008696045</v>
+        <v>0.5779878999124984</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -4205,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4661502636640595</v>
+        <v>0.4661502636668346</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -4242,13 +4242,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1192348356963122</v>
+        <v>0.1192348357220003</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2600653596459351</v>
+        <v>0.2600653618251573</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6256124217168921</v>
+        <v>0.6256124251432567</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -4279,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7805390535625173</v>
+        <v>0.780539054234655</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -4316,10 +4316,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.200051461227459</v>
+        <v>0.2000514612125959</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5275705188433969</v>
+        <v>0.5275705187729898</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -4353,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5677181810931407</v>
+        <v>0.5677181811042719</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -4390,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9978174402315648</v>
+        <v>0.9978174383363151</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -4427,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7516417539571294</v>
+        <v>0.7516417545135921</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -4464,10 +4464,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2005259333607756</v>
+        <v>0.200525933350039</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5586481085175697</v>
+        <v>0.5586481084980103</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -4501,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6910292425994248</v>
+        <v>0.6910292426131593</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.992320973438225</v>
+        <v>0.9923209715258008</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -4575,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.328436714623858</v>
+        <v>0.328436714671234</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2966618001523732</v>
+        <v>0.2966618001526588</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5222092927257566</v>
+        <v>0.5222092927314553</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -4723,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3072376634949304</v>
+        <v>0.3072376635311871</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -4760,10 +4760,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.279520687669417</v>
+        <v>0.2795206876756839</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8585235153847636</v>
+        <v>0.8585235156183586</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6344564325380321</v>
+        <v>0.6344564325454363</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -4834,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9819329747338521</v>
+        <v>0.9819329735774023</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -4871,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3571181322917064</v>
+        <v>0.3571181323458727</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.307812583547824</v>
+        <v>0.3078125835530361</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7000141383195267</v>
+        <v>0.7000141383288145</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -5019,13 +5019,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.136137268539923</v>
+        <v>0.1361372685174614</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3662883763391915</v>
+        <v>0.3662883758443072</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8397545894431707</v>
+        <v>0.8397545879568102</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -5056,13 +5056,13 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5120972939694942</v>
+        <v>0.5120972939868151</v>
       </c>
       <c r="F27" t="n">
-        <v>0.564298341955056</v>
+        <v>0.5642983403881605</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9045814926643935</v>
+        <v>0.9045814908808835</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.665895095037074</v>
+        <v>0.6658950950457462</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3704317581021963</v>
+        <v>0.3704317580256539</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -5204,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3243359478843501</v>
+        <v>0.3243359478825691</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8469393954103452</v>
+        <v>0.8469393969117672</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -5278,10 +5278,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1900025882544713</v>
+        <v>0.1900025882204552</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5666057616519027</v>
+        <v>0.5666057604186069</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -5352,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7089827124039794</v>
+        <v>0.7089827124135958</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -5389,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9877347014827451</v>
+        <v>0.9877347047066757</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
